--- a/SCH-STH/Impact assessments/Burkina Faso/2023 may/bf_202305_sch_impact_assessment_3_resultat_selles.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2023 may/bf_202305_sch_impact_assessment_3_resultat_selles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2023 may\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55F30C5-F7FC-44DD-9621-1D4A88FDC2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC99DFD2-E2E7-485A-A431-A2756A5A6809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="197">
   <si>
     <t>type</t>
   </si>
@@ -309,39 +309,6 @@
     <t>EN08</t>
   </si>
   <si>
-    <t>Centre</t>
-  </si>
-  <si>
-    <t>Hauts Bassins</t>
-  </si>
-  <si>
-    <t>Sud-Ouest</t>
-  </si>
-  <si>
-    <t>Bogodogo</t>
-  </si>
-  <si>
-    <t>Boulmiougou</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Karangasso-vigue</t>
-  </si>
-  <si>
-    <t>N'Dorola</t>
-  </si>
-  <si>
-    <t>Diebougou</t>
-  </si>
-  <si>
-    <t>Diébougou</t>
-  </si>
-  <si>
     <t>OuiNon_list</t>
   </si>
   <si>
@@ -360,219 +327,9 @@
     <t>csps_list</t>
   </si>
   <si>
-    <t>DIDRI</t>
-  </si>
-  <si>
-    <t>KOUBRI</t>
-  </si>
-  <si>
-    <t>PIKIEKO</t>
-  </si>
-  <si>
-    <t>TANVINAKAMTENGA</t>
-  </si>
-  <si>
-    <t>TANVI-NAKAMTENGA</t>
-  </si>
-  <si>
-    <t>CMSAABA</t>
-  </si>
-  <si>
-    <t>CM SAABA</t>
-  </si>
-  <si>
-    <t>GAMPELA</t>
-  </si>
-  <si>
-    <t>KOALA</t>
-  </si>
-  <si>
-    <t>NIOKO1</t>
-  </si>
-  <si>
-    <t>NIOKO 1</t>
-  </si>
-  <si>
-    <t>TANLARGHIN</t>
-  </si>
-  <si>
-    <t>WENDEFANDE</t>
-  </si>
-  <si>
-    <t>WENDE FANDE</t>
-  </si>
-  <si>
-    <t>TINTILOUSUD</t>
-  </si>
-  <si>
-    <t>TINTILOU SUD</t>
-  </si>
-  <si>
-    <t>BASSEMYAM</t>
-  </si>
-  <si>
-    <t>KIENFANGUE</t>
-  </si>
-  <si>
-    <t>PONSMTENGA</t>
-  </si>
-  <si>
-    <t>ZEGUEDESSE</t>
-  </si>
-  <si>
     <t>BOULSIN</t>
   </si>
   <si>
-    <t>BOULSIN (OUAGA)</t>
-  </si>
-  <si>
-    <t>CM DASSOURI</t>
-  </si>
-  <si>
-    <t>KOUDIERE</t>
-  </si>
-  <si>
-    <t>SANE</t>
-  </si>
-  <si>
-    <t>YIMDI</t>
-  </si>
-  <si>
-    <t>DOGONA</t>
-  </si>
-  <si>
-    <t>KIRI</t>
-  </si>
-  <si>
-    <t>KOUMI</t>
-  </si>
-  <si>
-    <t>NASSO</t>
-  </si>
-  <si>
-    <t>BOUENDE</t>
-  </si>
-  <si>
-    <t>KSAMBLA</t>
-  </si>
-  <si>
-    <t>K SAMBLA</t>
-  </si>
-  <si>
-    <t>MARBAGASSO</t>
-  </si>
-  <si>
-    <t>PENI</t>
-  </si>
-  <si>
-    <t>TAPOKO</t>
-  </si>
-  <si>
-    <t>TOUSSIANA</t>
-  </si>
-  <si>
-    <t>DAN</t>
-  </si>
-  <si>
-    <t>DEGUELIN</t>
-  </si>
-  <si>
-    <t>DIOSSO</t>
-  </si>
-  <si>
-    <t>KVIGUE</t>
-  </si>
-  <si>
-    <t>POYA</t>
-  </si>
-  <si>
-    <t>SOUMOUSSO</t>
-  </si>
-  <si>
-    <t>WARA</t>
-  </si>
-  <si>
-    <t>YEGUERE</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>KOFILA</t>
-  </si>
-  <si>
-    <t>LENA</t>
-  </si>
-  <si>
-    <t>BALA</t>
-  </si>
-  <si>
-    <t>BOSSORA</t>
-  </si>
-  <si>
-    <t>DEFINA</t>
-  </si>
-  <si>
-    <t>KADOMBA</t>
-  </si>
-  <si>
-    <t>KOROMA</t>
-  </si>
-  <si>
-    <t>SATIRI</t>
-  </si>
-  <si>
-    <t>TIARAKO</t>
-  </si>
-  <si>
-    <t>KOKORO</t>
-  </si>
-  <si>
-    <t>KOUROUMA</t>
-  </si>
-  <si>
-    <t>SADINA</t>
-  </si>
-  <si>
-    <t>FADONA</t>
-  </si>
-  <si>
-    <t>N'DOROLA</t>
-  </si>
-  <si>
-    <t>SILOROLA</t>
-  </si>
-  <si>
-    <t>BAMAKO</t>
-  </si>
-  <si>
-    <t>BAPLA</t>
-  </si>
-  <si>
-    <t>BONDIGUI</t>
-  </si>
-  <si>
-    <t>COMMUNAL</t>
-  </si>
-  <si>
-    <t>DANKOBLE</t>
-  </si>
-  <si>
-    <t>DOLO</t>
-  </si>
-  <si>
-    <t>KONSABLA</t>
-  </si>
-  <si>
-    <t>NABERE</t>
-  </si>
-  <si>
-    <t>POKOURO</t>
-  </si>
-  <si>
-    <t>TIOYO</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -612,34 +369,269 @@
     <t>Nombre d'œufs Trichuris trichiura pour la lame B</t>
   </si>
   <si>
-    <t>(BF - Jan 2023) impact schisto - 3. Formulaire Resultats Selles V3</t>
-  </si>
-  <si>
-    <t>bf_202301_sch_impact_assessment_3_resultat_selles_v3</t>
-  </si>
-  <si>
-    <t>Fara</t>
-  </si>
-  <si>
-    <t>Foulasso</t>
-  </si>
-  <si>
-    <t>Kodona</t>
-  </si>
-  <si>
-    <t>Seguedougou</t>
+    <t>bf_202305_sch_impact_assessment_3_resultat_selles</t>
+  </si>
+  <si>
+    <t>BOUCLE DU MOUHOUN</t>
+  </si>
+  <si>
+    <t>CENTRE</t>
+  </si>
+  <si>
+    <t>CENTRE-OUEST</t>
+  </si>
+  <si>
+    <t>SUD-OUEST</t>
+  </si>
+  <si>
+    <t>BOROMO</t>
+  </si>
+  <si>
+    <t>NOGR-MASSOM</t>
+  </si>
+  <si>
+    <t>SIG NONGHIN</t>
+  </si>
+  <si>
+    <t>KOUDOUGOU</t>
+  </si>
+  <si>
+    <t>NANORO</t>
+  </si>
+  <si>
+    <t>BATIÉ</t>
+  </si>
+  <si>
+    <t>DANO</t>
+  </si>
+  <si>
+    <t>BANABA</t>
+  </si>
+  <si>
+    <t>BATIE</t>
+  </si>
+  <si>
+    <t>BOPIEL</t>
+  </si>
+  <si>
+    <t>DANKANA</t>
+  </si>
+  <si>
+    <t>FADIO</t>
+  </si>
+  <si>
+    <t>KORIBA</t>
+  </si>
+  <si>
+    <t>KOUDJO</t>
+  </si>
+  <si>
+    <t>LEGMOIN</t>
+  </si>
+  <si>
+    <t>MIDEBDO</t>
+  </si>
+  <si>
+    <t>ZINDI</t>
+  </si>
+  <si>
+    <t>BANA</t>
+  </si>
+  <si>
+    <t>KABOUROU</t>
+  </si>
+  <si>
+    <t>KAHIN</t>
+  </si>
+  <si>
+    <t>MAMOU</t>
+  </si>
+  <si>
+    <t>OUAHABOU</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>POMPOÏ</t>
+  </si>
+  <si>
+    <t>SIBY</t>
+  </si>
+  <si>
+    <t>TONE</t>
+  </si>
+  <si>
+    <t>VY</t>
+  </si>
+  <si>
+    <t>BILBALE</t>
+  </si>
+  <si>
+    <t>DADONE</t>
+  </si>
+  <si>
+    <t>DISSIHN</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>KOKOLIBOU</t>
+  </si>
+  <si>
+    <t>KPOPERI</t>
+  </si>
+  <si>
+    <t>MOU</t>
+  </si>
+  <si>
+    <t>NAKAR</t>
+  </si>
+  <si>
+    <t>NAMARE</t>
+  </si>
+  <si>
+    <t>NAVRIKPE</t>
+  </si>
+  <si>
+    <t>BINGO</t>
+  </si>
+  <si>
+    <t>CMK</t>
+  </si>
+  <si>
+    <t>IMASGO</t>
+  </si>
+  <si>
+    <t>PEHIRI</t>
+  </si>
+  <si>
+    <t>PITMOAGA</t>
+  </si>
+  <si>
+    <t>RAMONGO</t>
+  </si>
+  <si>
+    <t>RANA</t>
+  </si>
+  <si>
+    <t>SAKOINSE</t>
+  </si>
+  <si>
+    <t>SOME</t>
+  </si>
+  <si>
+    <t>CM URBAIN</t>
+  </si>
+  <si>
+    <t>CSPS GODO</t>
+  </si>
+  <si>
+    <t>CSPS KINDI</t>
+  </si>
+  <si>
+    <t>CSPS KONE</t>
+  </si>
+  <si>
+    <t>CSPS KOURIA</t>
+  </si>
+  <si>
+    <t>CSPS LALLE</t>
+  </si>
+  <si>
+    <t>CSPS NASSOULOU</t>
+  </si>
+  <si>
+    <t>CSPS NAZOANGA</t>
+  </si>
+  <si>
+    <t>CSPS SOAW</t>
+  </si>
+  <si>
+    <t>CSPS SOMASSI</t>
+  </si>
+  <si>
+    <t>BANPORÉ</t>
+  </si>
+  <si>
+    <t>POLESGO</t>
+  </si>
+  <si>
+    <t>ROUMTENGA</t>
+  </si>
+  <si>
+    <t>SAKOULA</t>
+  </si>
+  <si>
+    <t>SECTEUR 13</t>
+  </si>
+  <si>
+    <t>SECTEUR 23</t>
+  </si>
+  <si>
+    <t>SECTEUR 25</t>
+  </si>
+  <si>
+    <t>SECTEUR 26</t>
+  </si>
+  <si>
+    <t>SECTEUR 27</t>
+  </si>
+  <si>
+    <t>SOGDIN</t>
+  </si>
+  <si>
+    <t>BASSINKO</t>
+  </si>
+  <si>
+    <t>BISSIGHIN</t>
+  </si>
+  <si>
+    <t>COOPERATION ALLEMANDE</t>
+  </si>
+  <si>
+    <t>CSPS BILGO</t>
+  </si>
+  <si>
+    <t>CSPS GOUPANA</t>
+  </si>
+  <si>
+    <t>CSPS NEDOGO</t>
+  </si>
+  <si>
+    <t>CSPS SABTENGA</t>
+  </si>
+  <si>
+    <t>CSPS SAINT JOSEPH</t>
+  </si>
+  <si>
+    <t>KAMBOINCIN</t>
+  </si>
+  <si>
+    <t>ZIBAKO</t>
+  </si>
+  <si>
+    <t>(BF - Mai 2023) impact schisto - 3. Formulaire Resultats Selles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -689,8 +681,22 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,6 +713,18 @@
       <patternFill patternType="solid">
         <fgColor indexed="5"/>
         <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -737,35 +755,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -775,6 +790,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,47 +1075,47 @@
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="18.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="18.75">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1109,10 +1134,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
@@ -1123,81 +1148,81 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="M5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="47.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="16"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C7" t="s">
@@ -1206,7 +1231,7 @@
       <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J7" t="s">
@@ -1214,28 +1239,28 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="45">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="16"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
       <c r="N8" t="s">
         <v>17</v>
       </c>
@@ -1247,8 +1272,8 @@
       <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>188</v>
+      <c r="C9" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -1261,10 +1286,10 @@
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="C10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>46</v>
       </c>
       <c r="J10" t="s">
@@ -1272,7 +1297,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
@@ -1281,7 +1306,7 @@
       <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
@@ -1289,7 +1314,7 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
@@ -1298,7 +1323,7 @@
       <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>49</v>
       </c>
       <c r="J12" t="s">
@@ -1312,10 +1337,10 @@
       <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="C13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>46</v>
       </c>
       <c r="J13" t="s">
@@ -1323,7 +1348,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
@@ -1332,7 +1357,7 @@
       <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J14" t="s">
@@ -1340,7 +1365,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
@@ -1349,7 +1374,7 @@
       <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J15" t="s">
@@ -1357,16 +1382,16 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J16" t="s">
@@ -1374,16 +1399,16 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J17" t="s">
@@ -1391,16 +1416,16 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
-      </c>
-      <c r="H18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J18" t="s">
@@ -1408,16 +1433,16 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J19" t="s">
@@ -1431,10 +1456,10 @@
       <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="C20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>46</v>
       </c>
       <c r="J20" t="s">
@@ -1442,7 +1467,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B21" t="s">
@@ -1451,7 +1476,7 @@
       <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J21" t="s">
@@ -1459,7 +1484,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B22" t="s">
@@ -1468,7 +1493,7 @@
       <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J22" t="s">
@@ -1476,7 +1501,7 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
@@ -1485,7 +1510,7 @@
       <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J23" t="s">
@@ -1493,7 +1518,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.4" customHeight="1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B24" t="s">
@@ -1502,7 +1527,7 @@
       <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J24" t="s">
@@ -1510,7 +1535,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B25" t="s">
@@ -1519,7 +1544,7 @@
       <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J25" t="s">
@@ -1527,7 +1552,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
@@ -1536,7 +1561,7 @@
       <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J26" t="s">
@@ -1544,7 +1569,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B27" t="s">
@@ -1563,7 +1588,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B29" t="s">
@@ -1571,7 +1596,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1581,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1704,28 +1729,28 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1"/>
     <row r="14" spans="1:7">
@@ -1733,10 +1758,10 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1744,10 +1769,10 @@
         <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1759,1099 +1784,1254 @@
         <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1">
+      <c r="A18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="20" customFormat="1">
+      <c r="A26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>125</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" t="s">
         <v>120</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" t="s">
         <v>120</v>
       </c>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75">
+      <c r="A59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" t="s">
+        <v>123</v>
+      </c>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75">
+      <c r="A64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75">
+      <c r="A65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75">
+      <c r="A66" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" t="s">
+        <v>123</v>
+      </c>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75">
+      <c r="A67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75">
+      <c r="A69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75">
+      <c r="A72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75">
+      <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" t="s">
         <v>121</v>
       </c>
-      <c r="C33" t="s">
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75">
+      <c r="A78" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" t="s">
+        <v>121</v>
+      </c>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82" t="s">
+        <v>121</v>
+      </c>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" t="s">
+        <v>121</v>
+      </c>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75">
+      <c r="A85" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" t="s">
+        <v>121</v>
+      </c>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.75">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" t="s">
+        <v>185</v>
+      </c>
+      <c r="E86" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75">
+      <c r="A87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" t="s">
         <v>122</v>
       </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" t="s">
-        <v>134</v>
-      </c>
-      <c r="E42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" t="s">
-        <v>149</v>
-      </c>
-      <c r="E56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" t="s">
-        <v>150</v>
-      </c>
-      <c r="E58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" t="s">
-        <v>153</v>
-      </c>
-      <c r="E61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" t="s">
-        <v>156</v>
-      </c>
-      <c r="E65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>111</v>
-      </c>
-      <c r="B67" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" t="s">
-        <v>159</v>
-      </c>
-      <c r="E68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" t="s">
-        <v>160</v>
-      </c>
-      <c r="E69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" t="s">
-        <v>161</v>
-      </c>
-      <c r="E70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>111</v>
-      </c>
-      <c r="B71" t="s">
-        <v>162</v>
-      </c>
-      <c r="C71" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" t="s">
-        <v>163</v>
-      </c>
-      <c r="E72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>111</v>
-      </c>
-      <c r="B74" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" t="s">
-        <v>166</v>
-      </c>
-      <c r="E75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B76" t="s">
-        <v>198</v>
-      </c>
-      <c r="C76" t="s">
-        <v>198</v>
-      </c>
-      <c r="E76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" t="s">
-        <v>199</v>
-      </c>
-      <c r="C77" t="s">
-        <v>199</v>
-      </c>
-      <c r="E77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" t="s">
-        <v>167</v>
-      </c>
-      <c r="E78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" t="s">
-        <v>168</v>
-      </c>
-      <c r="E79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" t="s">
-        <v>169</v>
-      </c>
-      <c r="C80" t="s">
-        <v>169</v>
-      </c>
-      <c r="E80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" t="s">
-        <v>200</v>
-      </c>
-      <c r="C81" t="s">
-        <v>200</v>
-      </c>
-      <c r="E81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" t="s">
-        <v>201</v>
-      </c>
-      <c r="C82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" t="s">
-        <v>170</v>
-      </c>
-      <c r="C83" t="s">
-        <v>170</v>
-      </c>
-      <c r="E83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" t="s">
-        <v>171</v>
-      </c>
-      <c r="C84" t="s">
-        <v>171</v>
-      </c>
-      <c r="E84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" t="s">
-        <v>172</v>
-      </c>
-      <c r="E85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>111</v>
-      </c>
-      <c r="B86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" t="s">
-        <v>173</v>
-      </c>
-      <c r="E86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87" t="s">
-        <v>174</v>
-      </c>
-      <c r="C87" t="s">
-        <v>174</v>
-      </c>
-      <c r="E87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.75">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E95" t="s">
-        <v>104</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+      <c r="E96" t="s">
+        <v>122</v>
+      </c>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2863,46 +3043,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.140625" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>186</v>
+      <c r="A1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>